--- a/templates/export/events.xlsx
+++ b/templates/export/events.xlsx
@@ -29,13 +29,13 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="11"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">jx:area(lastCell="E9")</t>
+          <t xml:space="preserve">jx:area(lastCell="F9")</t>
         </r>
       </text>
     </comment>
@@ -43,13 +43,13 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="11"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">jx:each(items="devices", var="device", lastCell="E9" multisheet="sheetNames")</t>
+          <t xml:space="preserve">jx:each(items="devices", var="device", lastCell="F9" multisheet="sheetNames")</t>
         </r>
       </text>
     </comment>
@@ -57,13 +57,13 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="11"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">jx:each(items="device.objects", var="event", lastCell="E9")</t>
+          <t xml:space="preserve">jx:each(items="device.objects", var="event", lastCell="F9")</t>
         </r>
       </text>
     </comment>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Report type:</t>
   </si>
@@ -110,6 +110,9 @@
     <t xml:space="preserve">Maintenance Name</t>
   </si>
   <si>
+    <t xml:space="preserve">Address</t>
+  </si>
+  <si>
     <t xml:space="preserve">Attributes</t>
   </si>
   <si>
@@ -123,6 +126,9 @@
   </si>
   <si>
     <t xml:space="preserve">${maintenanceNames[event.maintenanceId]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${positions[event.positionId] != null ? util.hyperlink("".format("https://www.openstreetmap.org/?mlat=%1$f&amp;mlon=%2$f#map=16/%1$f/%2$f", positions[event.positionId].latitude, positions[event.positionId].longitude), positions[event.positionId].getAddress() == null ? "".format("%1$f°, %2$f°", positions[event.positionId].latitude, positions[event.positionId].longitude) : positions[event.positionId].address) : ""}</t>
   </si>
   <si>
     <t xml:space="preserve">${event.attributes.toString().replaceAll(",", " ").replaceAll(bracketsRegex, "")}</t>
@@ -214,11 +220,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -279,44 +285,48 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="3" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="3" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -324,15 +334,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -370,7 +384,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF0070C0"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -411,7 +425,7 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -420,9 +434,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3685680</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:colOff>3685320</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>140040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -432,7 +446,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12565800" cy="9524520"/>
+          <a:ext cx="12556440" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -456,7 +470,7 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -465,9 +479,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3685680</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:colOff>3685320</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>140040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -477,7 +491,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12565800" cy="9524520"/>
+          <a:ext cx="12556440" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -501,7 +515,7 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -510,9 +524,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3685680</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:colOff>3685320</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>140040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -522,7 +536,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12565800" cy="9524520"/>
+          <a:ext cx="12556440" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -546,7 +560,7 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -555,9 +569,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1133280</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:colOff>1132920</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>140040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -567,7 +581,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10013400" cy="9524520"/>
+          <a:ext cx="10004040" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -591,7 +605,7 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -600,9 +614,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1133280</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:colOff>1132920</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>140040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -612,7 +626,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10013400" cy="9524520"/>
+          <a:ext cx="10004040" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -636,7 +650,7 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -645,9 +659,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1133280</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:colOff>1132920</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>140040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -657,7 +671,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10013400" cy="9524520"/>
+          <a:ext cx="10004040" cy="9524160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -685,127 +699,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="38.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="55.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="37.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="38.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="55.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="A1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
       <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="7"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="8"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="7"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="7"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="11" t="s">
         <v>12</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>17</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
